--- a/teaching/CSMC/2425/static/labsheets/05-RSA.xlsx
+++ b/teaching/CSMC/2425/static/labsheets/05-RSA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sheffieldhallam-my.sharepoint.com/personal/acesac5_hallam_shu_ac_uk/Documents/Teaching/Intro to Cryptography, Mathematics, and etc/crypto_site_2324/static/labsheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sheffieldhallam-my.sharepoint.com/personal/acesac5_hallam_shu_ac_uk/Documents/Teaching/CSMC/2425/crypto_site_2425/static/labsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{61F2FD5F-5C93-4141-A83C-F77559F9D997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51D4F884-701F-4687-BD2D-12AC70DE8029}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{549E2526-AC19-492E-A65F-2B24CB420489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B51601F-99A4-426A-865F-12EFA77A001A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{706AD135-4077-4E98-A2F9-F7F7B6DF9877}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" activeTab="1" xr2:uid="{706AD135-4077-4E98-A2F9-F7F7B6DF9877}"/>
   </bookViews>
   <sheets>
     <sheet name="RSA Encryption" sheetId="1" r:id="rId1"/>
@@ -152,7 +152,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -488,9 +499,9 @@
       <selection activeCell="F4" sqref="F4:G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -510,7 +521,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,162 +542,162 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4">
-        <f>2^A4</f>
+        <f t="shared" ref="B4:B19" si="0">2^A4</f>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5">
-        <f>A4+1</f>
+        <f t="shared" ref="A5:A19" si="1">A4+1</f>
         <v>1</v>
       </c>
       <c r="B5">
-        <f>2^A5</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6">
-        <f>A5+1</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="B6">
-        <f>2^A6</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7">
-        <f>A6+1</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B7">
-        <f>2^A7</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8">
-        <f>A7+1</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B8">
-        <f>2^A8</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9">
-        <f>A8+1</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B9">
-        <f>2^A9</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10">
-        <f>A9+1</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B10">
-        <f>2^A10</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11">
-        <f>A10+1</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B11">
-        <f>2^A11</f>
+        <f t="shared" si="0"/>
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12">
-        <f>A11+1</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B12">
-        <f>2^A12</f>
+        <f t="shared" si="0"/>
         <v>256</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13">
-        <f>A12+1</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B13">
-        <f>2^A13</f>
+        <f t="shared" si="0"/>
         <v>512</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14">
-        <f>A13+1</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B14">
-        <f>2^A14</f>
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15">
-        <f>A14+1</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B15">
-        <f>2^A15</f>
+        <f t="shared" si="0"/>
         <v>2048</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16">
-        <f>A15+1</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B16">
-        <f>2^A16</f>
+        <f t="shared" si="0"/>
         <v>4096</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
-        <f>A16+1</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B17">
-        <f>2^A17</f>
+        <f t="shared" si="0"/>
         <v>8192</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
-        <f>A17+1</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B18">
-        <f>2^A18</f>
+        <f t="shared" si="0"/>
         <v>16384</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
-        <f>A18+1</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B19">
-        <f>2^A19</f>
+        <f t="shared" si="0"/>
         <v>32768</v>
       </c>
     </row>
@@ -697,28 +708,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B412E6FB-E18B-44A6-B705-71A858308657}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1">
         <v>0</v>
       </c>
-      <c r="C1" s="2">
-        <f>H5</f>
-        <v>60</v>
-      </c>
+      <c r="C1" s="2"/>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
@@ -729,17 +737,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
-        <f>H3</f>
-        <v>17</v>
-      </c>
+      <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
@@ -753,11 +758,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E3" t="str">
-        <f>IF(C3=1,MOD(B3,$C$1),"")</f>
-        <v/>
-      </c>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
@@ -765,11 +766,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E4" t="str">
-        <f t="shared" ref="E4:E27" si="0">IF(C4=1,MOD(B4,$C$1),"")</f>
-        <v/>
-      </c>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="G4" s="1" t="s">
         <v>4</v>
       </c>
@@ -778,11 +775,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="G5" s="1" t="s">
         <v>10</v>
       </c>
@@ -791,140 +784,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E18" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E20" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
   </sheetData>
+  <conditionalFormatting sqref="C3:C1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>